--- a/schematic/BOMLIST.xlsx
+++ b/schematic/BOMLIST.xlsx
@@ -179,7 +179,7 @@
     <t xml:space="preserve">4.7K</t>
   </si>
   <si>
-    <t xml:space="preserve">CAY16A-471J4LF (Bourns)</t>
+    <t xml:space="preserve">CAY16A-472J4LF (Bourns)</t>
   </si>
   <si>
     <t xml:space="preserve">4x0603</t>
@@ -366,7 +366,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
